--- a/conf/excel/C_BackLine.xlsx
+++ b/conf/excel/C_BackLine.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\配置文件相关\Final-newCA-config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-clear\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5550135D-8C9F-4807-970F-5F3F051F8440}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="12390"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_BackLine.conf" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="162">
   <si>
     <r>
       <rPr>
@@ -302,51 +303,6 @@
     <t>海岸线</t>
   </si>
   <si>
-    <t>kind=0123;dispclass=5</t>
-  </si>
-  <si>
-    <t>catalog=0901010505</t>
-  </si>
-  <si>
-    <t>双线河（1级支流）</t>
-  </si>
-  <si>
-    <t>kind=0123;dispclass=4</t>
-  </si>
-  <si>
-    <t>catalog=0901010504</t>
-  </si>
-  <si>
-    <t>双线河（2级支流）</t>
-  </si>
-  <si>
-    <t>kind=0123;dispclass=3</t>
-  </si>
-  <si>
-    <t>catalog=0901010503</t>
-  </si>
-  <si>
-    <t>双线河（3级支流）</t>
-  </si>
-  <si>
-    <t>kind=0123;dispclass=2</t>
-  </si>
-  <si>
-    <t>catalog=0901010502</t>
-  </si>
-  <si>
-    <t>双线河（4\5级支流）</t>
-  </si>
-  <si>
-    <t>kind=0123;dispclass=1</t>
-  </si>
-  <si>
-    <t>catalog=0901010501</t>
-  </si>
-  <si>
-    <t>双线河（其它支流）</t>
-  </si>
-  <si>
     <t>kind=0123</t>
   </si>
   <si>
@@ -485,168 +441,7 @@
     <t>绿地假想线</t>
   </si>
   <si>
-    <t>kind=0151</t>
-  </si>
-  <si>
-    <t>catalog=090401</t>
-  </si>
-  <si>
-    <t>City Model(细分)</t>
-  </si>
-  <si>
-    <t>kind=1001 || kind=1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>catalog=09040101</t>
-  </si>
-  <si>
-    <t>商业性建筑</t>
-  </si>
-  <si>
-    <t>kind=2001</t>
-  </si>
-  <si>
-    <t>catalog=09040102</t>
-  </si>
-  <si>
     <t>会展中心</t>
-  </si>
-  <si>
-    <t>kind=3001 || kind=3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>catalog=09040103</t>
-  </si>
-  <si>
-    <t>人文性设施</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;4001-4003</t>
-  </si>
-  <si>
-    <t>catalog=09040104</t>
-  </si>
-  <si>
-    <t>教育性设施</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;5001-5005</t>
-  </si>
-  <si>
-    <t>catalog=09040105</t>
-  </si>
-  <si>
-    <t>紧急服务设施</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;6001-6002</t>
-  </si>
-  <si>
-    <t>catalog=09040106</t>
-  </si>
-  <si>
-    <t>政府性设施</t>
-  </si>
-  <si>
-    <t>kind=7001</t>
-  </si>
-  <si>
-    <t>catalog=09040107</t>
-  </si>
-  <si>
-    <t>历史性设施</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;8001-8003</t>
-  </si>
-  <si>
-    <t>catalog=09040108</t>
-  </si>
-  <si>
-    <t>医疗设施</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;9001-9004</t>
-  </si>
-  <si>
-    <t>catalog=09040109</t>
-  </si>
-  <si>
-    <t>公园/休闲性设施</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;1101-1103</t>
-  </si>
-  <si>
-    <t>catalog=09040111</t>
-  </si>
-  <si>
-    <t>居住及相关建筑</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;1201-1204</t>
-  </si>
-  <si>
-    <t>catalog=09040112</t>
-  </si>
-  <si>
-    <t>零售业建筑</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;1301-1302</t>
-  </si>
-  <si>
-    <t>catalog=09040113</t>
-  </si>
-  <si>
-    <t>运动场所及相关建筑</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;1401-1403</t>
-  </si>
-  <si>
-    <t>catalog=09040114</t>
-  </si>
-  <si>
-    <t>景点及相关建筑</t>
-  </si>
-  <si>
-    <t>kind&lt;InRange&gt;1501-1505</t>
-  </si>
-  <si>
-    <t>catalog=09040115</t>
-  </si>
-  <si>
-    <t>运输及相关建筑</t>
-  </si>
-  <si>
-    <t>kind=1601</t>
-  </si>
-  <si>
-    <t>catalog=09040116</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>kind=0152</t>
-  </si>
-  <si>
-    <t>catalog=090402</t>
-  </si>
-  <si>
-    <t>3D Landmark</t>
-  </si>
-  <si>
-    <t>kind=05ff</t>
-  </si>
-  <si>
-    <t>catalog=090403</t>
-  </si>
-  <si>
-    <t>建筑物假想线</t>
   </si>
   <si>
     <t>kind=0161</t>
@@ -812,8 +607,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,15 +639,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -861,18 +647,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -902,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -916,14 +696,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,11 +981,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1219,18 +996,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1244,146 +1021,146 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1431,13 +1208,13 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1453,651 +1230,398 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="6" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="6" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="3" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="3" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="7" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="7" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="7" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="6" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="6" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="6" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="B52" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C52" s="6" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="B53" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="6" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="C54" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="6" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="B55" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="C55" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="6" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="B56" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="A58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/conf/excel/C_BackLine.xlsx
+++ b/conf/excel/C_BackLine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-clear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5550135D-8C9F-4807-970F-5F3F051F8440}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B1D365-3BB5-4267-99F4-5523748D4E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_BackLine.conf" sheetId="1" r:id="rId1"/>
@@ -130,58 +130,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kind=07ff</t>
-  </si>
-  <si>
     <t>catalog=07FF</t>
   </si>
   <si>
     <t>假想线</t>
   </si>
   <si>
-    <t>kind=010bj0103</t>
-  </si>
-  <si>
     <t>catalog=09020601</t>
   </si>
   <si>
     <t>机场跑道线</t>
   </si>
   <si>
-    <t>kind=010bj0104</t>
-  </si>
-  <si>
     <t>catalog=09020602</t>
   </si>
   <si>
     <t>机场滑行线</t>
   </si>
   <si>
-    <t>kind=010bj0109</t>
-  </si>
-  <si>
     <t>catalog=09020603</t>
   </si>
   <si>
     <t>机场跑道中心线</t>
   </si>
   <si>
-    <t>kind=010bj0106</t>
-  </si>
-  <si>
     <t>catalog=07FF03</t>
   </si>
   <si>
-    <t>kind=010bj0107</t>
-  </si>
-  <si>
     <t>catalog=07FF02</t>
   </si>
   <si>
     <t>机场区域面边线</t>
-  </si>
-  <si>
-    <t>kind=0010</t>
   </si>
   <si>
     <t>catalog=07FF01</t>
@@ -195,246 +174,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kind=0242</t>
-  </si>
-  <si>
     <t>catalog=050102</t>
   </si>
   <si>
     <t>铁路无属性</t>
   </si>
   <si>
-    <t>kind=0243</t>
-  </si>
-  <si>
     <t>catalog=050103</t>
   </si>
   <si>
     <t>铁路隧道</t>
   </si>
   <si>
-    <t>kind=0244</t>
-  </si>
-  <si>
     <t>catalog=050302</t>
   </si>
   <si>
     <t>磁悬浮无属性</t>
   </si>
   <si>
-    <t>kind=0241</t>
-  </si>
-  <si>
     <t>catalog=050303</t>
   </si>
   <si>
     <t>磁悬浮隧道</t>
   </si>
   <si>
-    <t>kind=0245</t>
-  </si>
-  <si>
     <t>catalog=050202</t>
   </si>
   <si>
     <t>地铁、轻轨无属性</t>
   </si>
   <si>
-    <t>kind=0246</t>
-  </si>
-  <si>
     <t>catalog=050203</t>
   </si>
   <si>
     <t>地铁、轻轨隧道</t>
   </si>
   <si>
-    <t>kind=0136</t>
-  </si>
-  <si>
     <t>catalog=0602FF</t>
   </si>
   <si>
     <t>停战线、停火线</t>
   </si>
   <si>
-    <t>kind=0137</t>
-  </si>
-  <si>
     <t>catalog=0805</t>
   </si>
   <si>
     <t>区县级行政区</t>
   </si>
   <si>
-    <t>kind=0133</t>
-  </si>
-  <si>
     <t>catalog=0809</t>
   </si>
   <si>
     <t>建成区</t>
   </si>
   <si>
-    <t>kind=0134</t>
-  </si>
-  <si>
     <t>catalog=0808</t>
   </si>
   <si>
     <t>兴趣区</t>
   </si>
   <si>
-    <t>kind=02ff</t>
-  </si>
-  <si>
     <t>catalog=0701</t>
   </si>
   <si>
     <t>行政界假想线</t>
   </si>
   <si>
-    <t>kind=0121</t>
-  </si>
-  <si>
     <t>catalog=09010A04</t>
   </si>
   <si>
     <t>海岸线</t>
   </si>
   <si>
-    <t>kind=0123</t>
-  </si>
-  <si>
     <t>catalog=09010105</t>
   </si>
   <si>
     <t>双线河</t>
   </si>
   <si>
-    <t>kind=0122</t>
-  </si>
-  <si>
     <t>catalog=09010205</t>
   </si>
   <si>
     <t>湖沼</t>
   </si>
   <si>
-    <t>kind=0125</t>
-  </si>
-  <si>
     <t>港湾</t>
   </si>
   <si>
-    <t>kind=0143</t>
-  </si>
-  <si>
     <t>catalog=09020305</t>
   </si>
   <si>
     <t>岛无属性</t>
   </si>
   <si>
-    <t>kind=0145</t>
-  </si>
-  <si>
     <t>catalog=09020301</t>
   </si>
   <si>
     <t>暗沙</t>
   </si>
   <si>
-    <t>kind=0146</t>
-  </si>
-  <si>
     <t>catalog=09020302</t>
   </si>
   <si>
     <t>浅滩</t>
   </si>
   <si>
-    <t>kind=0147</t>
-  </si>
-  <si>
     <t>catalog=09020304</t>
   </si>
   <si>
     <t>珊瑚礁</t>
   </si>
   <si>
-    <t>kind=0148</t>
-  </si>
-  <si>
     <t>catalog=09020303</t>
   </si>
   <si>
     <t>礁</t>
   </si>
   <si>
-    <t>kind=0141</t>
-  </si>
-  <si>
     <t>catalog=090201</t>
   </si>
   <si>
     <t>绿地，公园</t>
   </si>
   <si>
-    <t>kind=0142</t>
-  </si>
-  <si>
     <t>catalog=09020203</t>
   </si>
   <si>
     <t>高尔夫球场</t>
   </si>
   <si>
-    <t>kind=0144</t>
-  </si>
-  <si>
     <t>catalog=090204</t>
   </si>
   <si>
     <t>绿化带</t>
   </si>
   <si>
-    <t>kind=0149</t>
-  </si>
-  <si>
     <t>catalog=090205</t>
   </si>
   <si>
     <t>机场</t>
   </si>
   <si>
-    <t>kind=014a</t>
-  </si>
-  <si>
     <t>catalog=090206</t>
   </si>
   <si>
     <t>机场跑道</t>
   </si>
   <si>
-    <t>kind=014b</t>
-  </si>
-  <si>
     <t>树林林地</t>
   </si>
   <si>
-    <t>kind=01ff</t>
-  </si>
-  <si>
     <t>catalog=0702</t>
   </si>
   <si>
     <t>水域假想线</t>
   </si>
   <si>
-    <t>kind=04ff</t>
-  </si>
-  <si>
     <t>catalog=0703</t>
   </si>
   <si>
@@ -444,153 +339,99 @@
     <t>会展中心</t>
   </si>
   <si>
-    <t>kind=0161</t>
-  </si>
-  <si>
     <t>catalog=09030201</t>
   </si>
   <si>
     <t>大学</t>
   </si>
   <si>
-    <t>kind=0162</t>
-  </si>
-  <si>
     <t>catalog=090305FF</t>
   </si>
   <si>
     <t>购物中心</t>
   </si>
   <si>
-    <t>kind=0163</t>
-  </si>
-  <si>
     <t>catalog=09030C</t>
   </si>
   <si>
     <t>医院</t>
   </si>
   <si>
-    <t>kind=0164</t>
-  </si>
-  <si>
     <t>catalog=090307FF</t>
   </si>
   <si>
     <t>工业区</t>
   </si>
   <si>
-    <t>kind=06ff</t>
-  </si>
-  <si>
     <t>catalog=0705</t>
   </si>
   <si>
     <t>功能面假想线</t>
   </si>
   <si>
-    <t>kind=0165</t>
-  </si>
-  <si>
     <t>catalog=09030D</t>
   </si>
   <si>
     <t>停车场</t>
   </si>
   <si>
-    <t>kind=0166</t>
-  </si>
-  <si>
     <t>地下停车场</t>
   </si>
   <si>
-    <t>kind=0167</t>
-  </si>
-  <si>
     <t>catalog=090301</t>
   </si>
   <si>
     <t>地铁出入口面</t>
   </si>
   <si>
-    <t>kind=0171</t>
-  </si>
-  <si>
     <t>catalog=090306FF</t>
   </si>
   <si>
     <t>休闲娱乐</t>
   </si>
   <si>
-    <t>kind=0172</t>
-  </si>
-  <si>
     <t>catalog=090304FF</t>
   </si>
   <si>
     <t>景区</t>
   </si>
   <si>
-    <t>kind=0173</t>
-  </si>
-  <si>
     <t>catalog=0903040106</t>
   </si>
   <si>
-    <t>kind=0174</t>
-  </si>
-  <si>
     <t>catalog=0903FF</t>
   </si>
   <si>
     <t>交通枢纽</t>
   </si>
   <si>
-    <t>kind=0175</t>
-  </si>
-  <si>
     <t>catalog=09030401FF</t>
   </si>
   <si>
     <t>文化场馆</t>
   </si>
   <si>
-    <t>kind=0176</t>
-  </si>
-  <si>
     <t>catalog=090308</t>
   </si>
   <si>
     <t>商务区</t>
   </si>
   <si>
-    <t>kind=0177</t>
-  </si>
-  <si>
     <t>商业区</t>
   </si>
   <si>
-    <t>kind=0178</t>
-  </si>
-  <si>
     <t>catalog=090303FF</t>
   </si>
   <si>
     <t>小区</t>
   </si>
   <si>
-    <t>kind=0179</t>
-  </si>
-  <si>
     <t>catalog=09030F</t>
   </si>
   <si>
     <t>广场</t>
   </si>
   <si>
-    <t>kind=017a</t>
-  </si>
-  <si>
     <t>特色区域</t>
   </si>
   <si>
@@ -600,8 +441,166 @@
     <t>体育场范围线</t>
   </si>
   <si>
-    <t>kind=84ff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>kind%=%0242</t>
+  </si>
+  <si>
+    <t>kind%=%0243</t>
+  </si>
+  <si>
+    <t>kind%=%0244</t>
+  </si>
+  <si>
+    <t>kind%=%0241</t>
+  </si>
+  <si>
+    <t>kind%=%0245</t>
+  </si>
+  <si>
+    <t>kind%=%0246</t>
+  </si>
+  <si>
+    <t>kind%=%07ff</t>
+  </si>
+  <si>
+    <t>kind%=%010bj0103</t>
+  </si>
+  <si>
+    <t>kind%=%010bj0104</t>
+  </si>
+  <si>
+    <t>kind%=%010bj0109</t>
+  </si>
+  <si>
+    <t>kind%=%010bj0106</t>
+  </si>
+  <si>
+    <t>kind%=%010bj0107</t>
+  </si>
+  <si>
+    <t>kind%=%0010</t>
+  </si>
+  <si>
+    <t>kind%=%0136</t>
+  </si>
+  <si>
+    <t>kind%=%0137</t>
+  </si>
+  <si>
+    <t>kind%=%0133</t>
+  </si>
+  <si>
+    <t>kind%=%0134</t>
+  </si>
+  <si>
+    <t>kind%=%02ff</t>
+  </si>
+  <si>
+    <t>kind%=%0121</t>
+  </si>
+  <si>
+    <t>kind%=%0123</t>
+  </si>
+  <si>
+    <t>kind%=%0122</t>
+  </si>
+  <si>
+    <t>kind%=%0125</t>
+  </si>
+  <si>
+    <t>kind%=%0143</t>
+  </si>
+  <si>
+    <t>kind%=%0145</t>
+  </si>
+  <si>
+    <t>kind%=%0146</t>
+  </si>
+  <si>
+    <t>kind%=%0147</t>
+  </si>
+  <si>
+    <t>kind%=%0148</t>
+  </si>
+  <si>
+    <t>kind%=%0141</t>
+  </si>
+  <si>
+    <t>kind%=%0142</t>
+  </si>
+  <si>
+    <t>kind%=%0144</t>
+  </si>
+  <si>
+    <t>kind%=%0149</t>
+  </si>
+  <si>
+    <t>kind%=%014a</t>
+  </si>
+  <si>
+    <t>kind%=%014b</t>
+  </si>
+  <si>
+    <t>kind%=%01ff</t>
+  </si>
+  <si>
+    <t>kind%=%04ff</t>
+  </si>
+  <si>
+    <t>kind%=%0161</t>
+  </si>
+  <si>
+    <t>kind%=%0162</t>
+  </si>
+  <si>
+    <t>kind%=%0163</t>
+  </si>
+  <si>
+    <t>kind%=%0164</t>
+  </si>
+  <si>
+    <t>kind%=%06ff</t>
+  </si>
+  <si>
+    <t>kind%=%0165</t>
+  </si>
+  <si>
+    <t>kind%=%0166</t>
+  </si>
+  <si>
+    <t>kind%=%0167</t>
+  </si>
+  <si>
+    <t>kind%=%0171</t>
+  </si>
+  <si>
+    <t>kind%=%0172</t>
+  </si>
+  <si>
+    <t>kind%=%0173</t>
+  </si>
+  <si>
+    <t>kind%=%0174</t>
+  </si>
+  <si>
+    <t>kind%=%0175</t>
+  </si>
+  <si>
+    <t>kind%=%0176</t>
+  </si>
+  <si>
+    <t>kind%=%0177</t>
+  </si>
+  <si>
+    <t>kind%=%0178</t>
+  </si>
+  <si>
+    <t>kind%=%0179</t>
+  </si>
+  <si>
+    <t>kind%=%017a</t>
+  </si>
+  <si>
+    <t>kind%=%84ff</t>
   </si>
 </sst>
 </file>
@@ -985,7 +984,7 @@
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1022,585 +1021,585 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1608,21 +1607,21 @@
         <v>161</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/conf/excel/C_BackLine.xlsx
+++ b/conf/excel/C_BackLine.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\综合学习资料\tencent\配置文件相关\newCA-config-final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B1D365-3BB5-4267-99F4-5523748D4E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45429CA-F93E-4678-8486-35D1B4625291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1125" windowWidth="23580" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_BackLine.conf" sheetId="1" r:id="rId1"/>
@@ -441,166 +441,166 @@
     <t>体育场范围线</t>
   </si>
   <si>
-    <t>kind%=%0242</t>
-  </si>
-  <si>
-    <t>kind%=%0243</t>
-  </si>
-  <si>
-    <t>kind%=%0244</t>
-  </si>
-  <si>
-    <t>kind%=%0241</t>
-  </si>
-  <si>
-    <t>kind%=%0245</t>
-  </si>
-  <si>
-    <t>kind%=%0246</t>
-  </si>
-  <si>
-    <t>kind%=%07ff</t>
-  </si>
-  <si>
-    <t>kind%=%010bj0103</t>
-  </si>
-  <si>
-    <t>kind%=%010bj0104</t>
-  </si>
-  <si>
-    <t>kind%=%010bj0109</t>
-  </si>
-  <si>
-    <t>kind%=%010bj0106</t>
-  </si>
-  <si>
-    <t>kind%=%010bj0107</t>
-  </si>
-  <si>
-    <t>kind%=%0010</t>
-  </si>
-  <si>
-    <t>kind%=%0136</t>
-  </si>
-  <si>
-    <t>kind%=%0137</t>
-  </si>
-  <si>
-    <t>kind%=%0133</t>
-  </si>
-  <si>
-    <t>kind%=%0134</t>
-  </si>
-  <si>
-    <t>kind%=%02ff</t>
-  </si>
-  <si>
-    <t>kind%=%0121</t>
-  </si>
-  <si>
-    <t>kind%=%0123</t>
-  </si>
-  <si>
-    <t>kind%=%0122</t>
-  </si>
-  <si>
-    <t>kind%=%0125</t>
-  </si>
-  <si>
-    <t>kind%=%0143</t>
-  </si>
-  <si>
-    <t>kind%=%0145</t>
-  </si>
-  <si>
-    <t>kind%=%0146</t>
-  </si>
-  <si>
-    <t>kind%=%0147</t>
-  </si>
-  <si>
-    <t>kind%=%0148</t>
-  </si>
-  <si>
-    <t>kind%=%0141</t>
-  </si>
-  <si>
-    <t>kind%=%0142</t>
-  </si>
-  <si>
-    <t>kind%=%0144</t>
-  </si>
-  <si>
-    <t>kind%=%0149</t>
-  </si>
-  <si>
-    <t>kind%=%014a</t>
-  </si>
-  <si>
-    <t>kind%=%014b</t>
-  </si>
-  <si>
-    <t>kind%=%01ff</t>
-  </si>
-  <si>
-    <t>kind%=%04ff</t>
-  </si>
-  <si>
-    <t>kind%=%0161</t>
-  </si>
-  <si>
-    <t>kind%=%0162</t>
-  </si>
-  <si>
-    <t>kind%=%0163</t>
-  </si>
-  <si>
-    <t>kind%=%0164</t>
-  </si>
-  <si>
-    <t>kind%=%06ff</t>
-  </si>
-  <si>
-    <t>kind%=%0165</t>
-  </si>
-  <si>
-    <t>kind%=%0166</t>
-  </si>
-  <si>
-    <t>kind%=%0167</t>
-  </si>
-  <si>
-    <t>kind%=%0171</t>
-  </si>
-  <si>
-    <t>kind%=%0172</t>
-  </si>
-  <si>
-    <t>kind%=%0173</t>
-  </si>
-  <si>
-    <t>kind%=%0174</t>
-  </si>
-  <si>
-    <t>kind%=%0175</t>
-  </si>
-  <si>
-    <t>kind%=%0176</t>
-  </si>
-  <si>
-    <t>kind%=%0177</t>
-  </si>
-  <si>
-    <t>kind%=%0178</t>
-  </si>
-  <si>
-    <t>kind%=%0179</t>
-  </si>
-  <si>
-    <t>kind%=%017a</t>
-  </si>
-  <si>
-    <t>kind%=%84ff</t>
+    <t>kind%=0144</t>
+  </si>
+  <si>
+    <t>kind%=0242</t>
+  </si>
+  <si>
+    <t>kind%=0243</t>
+  </si>
+  <si>
+    <t>kind%=0244</t>
+  </si>
+  <si>
+    <t>kind%=0241</t>
+  </si>
+  <si>
+    <t>kind%=0245</t>
+  </si>
+  <si>
+    <t>kind%=0246</t>
+  </si>
+  <si>
+    <t>kind%=07ff</t>
+  </si>
+  <si>
+    <t>kind%=010bj0103</t>
+  </si>
+  <si>
+    <t>kind%=010bj0104</t>
+  </si>
+  <si>
+    <t>kind%=010bj0109</t>
+  </si>
+  <si>
+    <t>kind%=010bj0106</t>
+  </si>
+  <si>
+    <t>kind%=010bj0107</t>
+  </si>
+  <si>
+    <t>kind%=0010</t>
+  </si>
+  <si>
+    <t>kind%=0133</t>
+  </si>
+  <si>
+    <t>kind%=0134</t>
+  </si>
+  <si>
+    <t>kind%=0136</t>
+  </si>
+  <si>
+    <t>kind%=0137</t>
+  </si>
+  <si>
+    <t>kind%=02ff</t>
+  </si>
+  <si>
+    <t>kind%=0121</t>
+  </si>
+  <si>
+    <t>kind%=0123</t>
+  </si>
+  <si>
+    <t>kind%=0122</t>
+  </si>
+  <si>
+    <t>kind%=0125</t>
+  </si>
+  <si>
+    <t>kind%=0141</t>
+  </si>
+  <si>
+    <t>kind%=0142</t>
+  </si>
+  <si>
+    <t>kind%=0143</t>
+  </si>
+  <si>
+    <t>kind%=0145</t>
+  </si>
+  <si>
+    <t>kind%=0146</t>
+  </si>
+  <si>
+    <t>kind%=0147</t>
+  </si>
+  <si>
+    <t>kind%=0148</t>
+  </si>
+  <si>
+    <t>kind%=0149</t>
+  </si>
+  <si>
+    <t>kind%=014a</t>
+  </si>
+  <si>
+    <t>kind%=014b</t>
+  </si>
+  <si>
+    <t>kind%=01ff</t>
+  </si>
+  <si>
+    <t>kind%=04ff</t>
+  </si>
+  <si>
+    <t>kind%=0161</t>
+  </si>
+  <si>
+    <t>kind%=0162</t>
+  </si>
+  <si>
+    <t>kind%=0163</t>
+  </si>
+  <si>
+    <t>kind%=0164</t>
+  </si>
+  <si>
+    <t>kind%=06ff</t>
+  </si>
+  <si>
+    <t>kind%=0165</t>
+  </si>
+  <si>
+    <t>kind%=0166</t>
+  </si>
+  <si>
+    <t>kind%=0167</t>
+  </si>
+  <si>
+    <t>kind%=0171</t>
+  </si>
+  <si>
+    <t>kind%=0172</t>
+  </si>
+  <si>
+    <t>kind%=0173</t>
+  </si>
+  <si>
+    <t>kind%=0174</t>
+  </si>
+  <si>
+    <t>kind%=0175</t>
+  </si>
+  <si>
+    <t>kind%=0176</t>
+  </si>
+  <si>
+    <t>kind%=0177</t>
+  </si>
+  <si>
+    <t>kind%=0178</t>
+  </si>
+  <si>
+    <t>kind%=0179</t>
+  </si>
+  <si>
+    <t>kind%=017a</t>
+  </si>
+  <si>
+    <t>kind%=84ff</t>
   </si>
 </sst>
 </file>
@@ -646,12 +646,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -681,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -696,6 +702,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -983,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -995,18 +1007,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1021,7 +1033,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>19</v>
@@ -1032,7 +1044,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>21</v>
@@ -1043,7 +1055,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
@@ -1054,7 +1066,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
@@ -1065,7 +1077,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
@@ -1076,7 +1088,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>29</v>
@@ -1087,7 +1099,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -1098,7 +1110,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1109,7 +1121,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -1120,7 +1132,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -1131,7 +1143,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -1142,7 +1154,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
@@ -1153,7 +1165,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
@@ -1163,52 +1175,52 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="4" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>39</v>
@@ -1219,7 +1231,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>41</v>
@@ -1230,7 +1242,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>43</v>
@@ -1241,7 +1253,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>45</v>
@@ -1252,7 +1264,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>41</v>
@@ -1262,47 +1274,47 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>49</v>
+      <c r="A26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>51</v>
+      <c r="A27" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>55</v>
+      <c r="A29" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1310,10 +1322,10 @@
         <v>134</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1321,10 +1333,10 @@
         <v>135</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1332,10 +1344,10 @@
         <v>136</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1343,10 +1355,10 @@
         <v>137</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1615,7 +1627,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>5</v>

--- a/conf/excel/C_BackLine.xlsx
+++ b/conf/excel/C_BackLine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45429CA-F93E-4678-8486-35D1B4625291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20972D1D-449C-41AF-B672-1F2F3F980B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1125" windowWidth="23580" windowHeight="10035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C_BackLine.conf" sheetId="1" r:id="rId1"/>
@@ -441,166 +441,166 @@
     <t>体育场范围线</t>
   </si>
   <si>
-    <t>kind%=0144</t>
-  </si>
-  <si>
-    <t>kind%=0242</t>
-  </si>
-  <si>
-    <t>kind%=0243</t>
-  </si>
-  <si>
-    <t>kind%=0244</t>
-  </si>
-  <si>
-    <t>kind%=0241</t>
-  </si>
-  <si>
-    <t>kind%=0245</t>
-  </si>
-  <si>
-    <t>kind%=0246</t>
-  </si>
-  <si>
-    <t>kind%=07ff</t>
-  </si>
-  <si>
-    <t>kind%=010bj0103</t>
-  </si>
-  <si>
-    <t>kind%=010bj0104</t>
-  </si>
-  <si>
-    <t>kind%=010bj0109</t>
-  </si>
-  <si>
-    <t>kind%=010bj0106</t>
-  </si>
-  <si>
-    <t>kind%=010bj0107</t>
-  </si>
-  <si>
-    <t>kind%=0010</t>
-  </si>
-  <si>
-    <t>kind%=0133</t>
-  </si>
-  <si>
-    <t>kind%=0134</t>
-  </si>
-  <si>
-    <t>kind%=0136</t>
-  </si>
-  <si>
-    <t>kind%=0137</t>
-  </si>
-  <si>
-    <t>kind%=02ff</t>
-  </si>
-  <si>
-    <t>kind%=0121</t>
-  </si>
-  <si>
-    <t>kind%=0123</t>
-  </si>
-  <si>
-    <t>kind%=0122</t>
-  </si>
-  <si>
-    <t>kind%=0125</t>
-  </si>
-  <si>
-    <t>kind%=0141</t>
-  </si>
-  <si>
-    <t>kind%=0142</t>
-  </si>
-  <si>
-    <t>kind%=0143</t>
-  </si>
-  <si>
-    <t>kind%=0145</t>
-  </si>
-  <si>
-    <t>kind%=0146</t>
-  </si>
-  <si>
-    <t>kind%=0147</t>
-  </si>
-  <si>
-    <t>kind%=0148</t>
-  </si>
-  <si>
-    <t>kind%=0149</t>
-  </si>
-  <si>
-    <t>kind%=014a</t>
-  </si>
-  <si>
-    <t>kind%=014b</t>
-  </si>
-  <si>
-    <t>kind%=01ff</t>
-  </si>
-  <si>
-    <t>kind%=04ff</t>
-  </si>
-  <si>
-    <t>kind%=0161</t>
-  </si>
-  <si>
-    <t>kind%=0162</t>
-  </si>
-  <si>
-    <t>kind%=0163</t>
-  </si>
-  <si>
-    <t>kind%=0164</t>
-  </si>
-  <si>
-    <t>kind%=06ff</t>
-  </si>
-  <si>
-    <t>kind%=0165</t>
-  </si>
-  <si>
-    <t>kind%=0166</t>
-  </si>
-  <si>
-    <t>kind%=0167</t>
-  </si>
-  <si>
-    <t>kind%=0171</t>
-  </si>
-  <si>
-    <t>kind%=0172</t>
-  </si>
-  <si>
-    <t>kind%=0173</t>
-  </si>
-  <si>
-    <t>kind%=0174</t>
-  </si>
-  <si>
-    <t>kind%=0175</t>
-  </si>
-  <si>
-    <t>kind%=0176</t>
-  </si>
-  <si>
-    <t>kind%=0177</t>
-  </si>
-  <si>
-    <t>kind%=0178</t>
-  </si>
-  <si>
-    <t>kind%=0179</t>
-  </si>
-  <si>
-    <t>kind%=017a</t>
-  </si>
-  <si>
-    <t>kind%=84ff</t>
+    <t>kind=0242</t>
+  </si>
+  <si>
+    <t>kind=0243</t>
+  </si>
+  <si>
+    <t>kind=0244</t>
+  </si>
+  <si>
+    <t>kind=0241</t>
+  </si>
+  <si>
+    <t>kind=0245</t>
+  </si>
+  <si>
+    <t>kind=0246</t>
+  </si>
+  <si>
+    <t>kind=07ff</t>
+  </si>
+  <si>
+    <t>kind=010bj0103</t>
+  </si>
+  <si>
+    <t>kind=010bj0104</t>
+  </si>
+  <si>
+    <t>kind=010bj0109</t>
+  </si>
+  <si>
+    <t>kind=010bj0106</t>
+  </si>
+  <si>
+    <t>kind=010bj0107</t>
+  </si>
+  <si>
+    <t>kind=0010</t>
+  </si>
+  <si>
+    <t>kind=0133</t>
+  </si>
+  <si>
+    <t>kind=0134</t>
+  </si>
+  <si>
+    <t>kind=0136</t>
+  </si>
+  <si>
+    <t>kind=0137</t>
+  </si>
+  <si>
+    <t>kind=02ff</t>
+  </si>
+  <si>
+    <t>kind=0121</t>
+  </si>
+  <si>
+    <t>kind=0123</t>
+  </si>
+  <si>
+    <t>kind=0122</t>
+  </si>
+  <si>
+    <t>kind=0125</t>
+  </si>
+  <si>
+    <t>kind=0141</t>
+  </si>
+  <si>
+    <t>kind=0142</t>
+  </si>
+  <si>
+    <t>kind=0143</t>
+  </si>
+  <si>
+    <t>kind=0144</t>
+  </si>
+  <si>
+    <t>kind=0145</t>
+  </si>
+  <si>
+    <t>kind=0146</t>
+  </si>
+  <si>
+    <t>kind=0147</t>
+  </si>
+  <si>
+    <t>kind=0148</t>
+  </si>
+  <si>
+    <t>kind=0149</t>
+  </si>
+  <si>
+    <t>kind=014a</t>
+  </si>
+  <si>
+    <t>kind=014b</t>
+  </si>
+  <si>
+    <t>kind=01ff</t>
+  </si>
+  <si>
+    <t>kind=04ff</t>
+  </si>
+  <si>
+    <t>kind=0161</t>
+  </si>
+  <si>
+    <t>kind=0162</t>
+  </si>
+  <si>
+    <t>kind=0163</t>
+  </si>
+  <si>
+    <t>kind=0164</t>
+  </si>
+  <si>
+    <t>kind=06ff</t>
+  </si>
+  <si>
+    <t>kind=0165</t>
+  </si>
+  <si>
+    <t>kind=0166</t>
+  </si>
+  <si>
+    <t>kind=0167</t>
+  </si>
+  <si>
+    <t>kind=0171</t>
+  </si>
+  <si>
+    <t>kind=0172</t>
+  </si>
+  <si>
+    <t>kind=0173</t>
+  </si>
+  <si>
+    <t>kind=0174</t>
+  </si>
+  <si>
+    <t>kind=0175</t>
+  </si>
+  <si>
+    <t>kind=0176</t>
+  </si>
+  <si>
+    <t>kind=0177</t>
+  </si>
+  <si>
+    <t>kind=0178</t>
+  </si>
+  <si>
+    <t>kind=0179</t>
+  </si>
+  <si>
+    <t>kind=017a</t>
+  </si>
+  <si>
+    <t>kind=84ff</t>
   </si>
 </sst>
 </file>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1033,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>19</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>21</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>23</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>29</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>16</v>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>35</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>37</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>31</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>33</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>39</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>41</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>43</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>45</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>41</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>58</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>60</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>48</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>62</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>5</v>

--- a/conf/excel/C_BackLine.xlsx
+++ b/conf/excel/C_BackLine.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\长期文件\学习资料\综合学习资料\tencent\配置文件相关\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\76780\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20972D1D-449C-41AF-B672-1F2F3F980B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D915379-EC42-471D-BA1C-368602351FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,166 +441,166 @@
     <t>体育场范围线</t>
   </si>
   <si>
-    <t>kind=0242</t>
-  </si>
-  <si>
-    <t>kind=0243</t>
-  </si>
-  <si>
-    <t>kind=0244</t>
-  </si>
-  <si>
-    <t>kind=0241</t>
-  </si>
-  <si>
-    <t>kind=0245</t>
-  </si>
-  <si>
-    <t>kind=0246</t>
-  </si>
-  <si>
-    <t>kind=07ff</t>
-  </si>
-  <si>
-    <t>kind=010bj0103</t>
-  </si>
-  <si>
-    <t>kind=010bj0104</t>
-  </si>
-  <si>
-    <t>kind=010bj0109</t>
-  </si>
-  <si>
-    <t>kind=010bj0106</t>
-  </si>
-  <si>
-    <t>kind=010bj0107</t>
-  </si>
-  <si>
-    <t>kind=0010</t>
-  </si>
-  <si>
-    <t>kind=0133</t>
-  </si>
-  <si>
-    <t>kind=0134</t>
-  </si>
-  <si>
-    <t>kind=0136</t>
-  </si>
-  <si>
-    <t>kind=0137</t>
-  </si>
-  <si>
-    <t>kind=02ff</t>
-  </si>
-  <si>
-    <t>kind=0121</t>
-  </si>
-  <si>
-    <t>kind=0123</t>
-  </si>
-  <si>
-    <t>kind=0122</t>
-  </si>
-  <si>
-    <t>kind=0125</t>
-  </si>
-  <si>
-    <t>kind=0141</t>
-  </si>
-  <si>
-    <t>kind=0142</t>
-  </si>
-  <si>
-    <t>kind=0143</t>
-  </si>
-  <si>
-    <t>kind=0144</t>
-  </si>
-  <si>
-    <t>kind=0145</t>
-  </si>
-  <si>
-    <t>kind=0146</t>
-  </si>
-  <si>
-    <t>kind=0147</t>
-  </si>
-  <si>
-    <t>kind=0148</t>
-  </si>
-  <si>
-    <t>kind=0149</t>
-  </si>
-  <si>
-    <t>kind=014a</t>
-  </si>
-  <si>
-    <t>kind=014b</t>
-  </si>
-  <si>
-    <t>kind=01ff</t>
-  </si>
-  <si>
-    <t>kind=04ff</t>
-  </si>
-  <si>
-    <t>kind=0161</t>
-  </si>
-  <si>
-    <t>kind=0162</t>
-  </si>
-  <si>
-    <t>kind=0163</t>
-  </si>
-  <si>
-    <t>kind=0164</t>
-  </si>
-  <si>
-    <t>kind=06ff</t>
-  </si>
-  <si>
-    <t>kind=0165</t>
-  </si>
-  <si>
-    <t>kind=0166</t>
-  </si>
-  <si>
-    <t>kind=0167</t>
-  </si>
-  <si>
-    <t>kind=0171</t>
-  </si>
-  <si>
-    <t>kind=0172</t>
-  </si>
-  <si>
-    <t>kind=0173</t>
-  </si>
-  <si>
-    <t>kind=0174</t>
-  </si>
-  <si>
-    <t>kind=0175</t>
-  </si>
-  <si>
-    <t>kind=0176</t>
-  </si>
-  <si>
-    <t>kind=0177</t>
-  </si>
-  <si>
-    <t>kind=0178</t>
-  </si>
-  <si>
-    <t>kind=0179</t>
-  </si>
-  <si>
-    <t>kind=017a</t>
-  </si>
-  <si>
-    <t>kind=84ff</t>
+    <t>kind%=0242</t>
+  </si>
+  <si>
+    <t>kind%=0243</t>
+  </si>
+  <si>
+    <t>kind%=0244</t>
+  </si>
+  <si>
+    <t>kind%=0241</t>
+  </si>
+  <si>
+    <t>kind%=0245</t>
+  </si>
+  <si>
+    <t>kind%=0246</t>
+  </si>
+  <si>
+    <t>kind%=07ff</t>
+  </si>
+  <si>
+    <t>kind%=010bj0103</t>
+  </si>
+  <si>
+    <t>kind%=010bj0104</t>
+  </si>
+  <si>
+    <t>kind%=010bj0109</t>
+  </si>
+  <si>
+    <t>kind%=010bj0106</t>
+  </si>
+  <si>
+    <t>kind%=010bj0107</t>
+  </si>
+  <si>
+    <t>kind%=0010</t>
+  </si>
+  <si>
+    <t>kind%=0133</t>
+  </si>
+  <si>
+    <t>kind%=0134</t>
+  </si>
+  <si>
+    <t>kind%=0136</t>
+  </si>
+  <si>
+    <t>kind%=0137</t>
+  </si>
+  <si>
+    <t>kind%=02ff</t>
+  </si>
+  <si>
+    <t>kind%=0121</t>
+  </si>
+  <si>
+    <t>kind%=0123</t>
+  </si>
+  <si>
+    <t>kind%=0122</t>
+  </si>
+  <si>
+    <t>kind%=0125</t>
+  </si>
+  <si>
+    <t>kind%=0141</t>
+  </si>
+  <si>
+    <t>kind%=0142</t>
+  </si>
+  <si>
+    <t>kind%=0143</t>
+  </si>
+  <si>
+    <t>kind%=0144</t>
+  </si>
+  <si>
+    <t>kind%=0145</t>
+  </si>
+  <si>
+    <t>kind%=0146</t>
+  </si>
+  <si>
+    <t>kind%=0147</t>
+  </si>
+  <si>
+    <t>kind%=0148</t>
+  </si>
+  <si>
+    <t>kind%=0149</t>
+  </si>
+  <si>
+    <t>kind%=014a</t>
+  </si>
+  <si>
+    <t>kind%=014b</t>
+  </si>
+  <si>
+    <t>kind%=01ff</t>
+  </si>
+  <si>
+    <t>kind%=04ff</t>
+  </si>
+  <si>
+    <t>kind%=0161</t>
+  </si>
+  <si>
+    <t>kind%=0162</t>
+  </si>
+  <si>
+    <t>kind%=0163</t>
+  </si>
+  <si>
+    <t>kind%=0164</t>
+  </si>
+  <si>
+    <t>kind%=06ff</t>
+  </si>
+  <si>
+    <t>kind%=0165</t>
+  </si>
+  <si>
+    <t>kind%=0166</t>
+  </si>
+  <si>
+    <t>kind%=0167</t>
+  </si>
+  <si>
+    <t>kind%=0171</t>
+  </si>
+  <si>
+    <t>kind%=0172</t>
+  </si>
+  <si>
+    <t>kind%=0173</t>
+  </si>
+  <si>
+    <t>kind%=0174</t>
+  </si>
+  <si>
+    <t>kind%=0175</t>
+  </si>
+  <si>
+    <t>kind%=0176</t>
+  </si>
+  <si>
+    <t>kind%=0177</t>
+  </si>
+  <si>
+    <t>kind%=0178</t>
+  </si>
+  <si>
+    <t>kind%=0179</t>
+  </si>
+  <si>
+    <t>kind%=017a</t>
+  </si>
+  <si>
+    <t>kind%=84ff</t>
   </si>
 </sst>
 </file>
